--- a/Planilhas/taxa.xlsx
+++ b/Planilhas/taxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G541"/>
+  <dimension ref="A1:G595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>61.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>61.2</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>37.6</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>41.1</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>32.4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>39.9</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>29.7</t>
+          <t>29.8</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>33.2</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>28.2</t>
+          <t>28.3</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>25.1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>29.8</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>29.6</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>26.2</t>
+          <t>26.3</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>30.2</t>
+          <t>30.3</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>28.9</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>53.1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>29.3</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>27.1</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>30.5</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>61.3</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>53.1</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>39.9</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>30.3</t>
+          <t>30.5</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>26.4</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.3</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>39.8</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>53.1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>32.6</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>30.9</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>40.4</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>62.2</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>39.9</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>32.4</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>31.3</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>33.5</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>27.3</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>33.7</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -8498,7 +8498,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>30.5</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>27.7</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>39.9</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>30.3</t>
+          <t>30.4</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -9408,7 +9408,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -9478,7 +9478,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>38.8</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>32.5</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -9793,7 +9793,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>39.7</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -10178,7 +10178,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -10213,7 +10213,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -10318,7 +10318,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -10388,7 +10388,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -10598,7 +10598,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>32.5</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -10668,7 +10668,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>33.7</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>38.8</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>29.8</t>
+          <t>29.9</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -11018,7 +11018,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>60.8</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -11298,7 +11298,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -11438,7 +11438,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -11473,7 +11473,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>30.5</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -11578,7 +11578,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>31.3</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>29.7</t>
+          <t>29.8</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>59.6</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -12068,7 +12068,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -12348,7 +12348,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>38.8</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -12558,7 +12558,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>26.1</t>
+          <t>26.2</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -12768,7 +12768,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -13118,7 +13118,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -13153,7 +13153,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>26.7</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -13538,7 +13538,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -13573,7 +13573,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>35.1</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -13853,7 +13853,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -14028,7 +14028,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -14098,7 +14098,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -14168,7 +14168,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -14203,7 +14203,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -14238,7 +14238,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -14273,7 +14273,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -14413,7 +14413,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -14448,7 +14448,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -14833,7 +14833,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>39.9</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -14868,7 +14868,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -14903,7 +14903,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -15008,7 +15008,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -15043,7 +15043,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -15253,7 +15253,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -15323,7 +15323,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>31.3</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -15358,7 +15358,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>27.6</t>
+          <t>27.7</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>32.2</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -15533,7 +15533,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -15638,7 +15638,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -15778,7 +15778,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -15813,7 +15813,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -15848,7 +15848,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -15883,7 +15883,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -15918,7 +15918,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -16023,7 +16023,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -16093,7 +16093,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -16198,7 +16198,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>38.8</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -16303,7 +16303,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>27.4</t>
+          <t>27.5</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -16548,7 +16548,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -16758,7 +16758,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -16793,7 +16793,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -16863,7 +16863,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -16933,7 +16933,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -17038,7 +17038,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -17073,7 +17073,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -17318,7 +17318,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>32.5</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -17528,7 +17528,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -17563,7 +17563,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -17598,7 +17598,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>57.2</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -17668,7 +17668,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -17773,7 +17773,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -17808,7 +17808,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -17843,7 +17843,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -17878,7 +17878,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -17913,7 +17913,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -17983,7 +17983,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -18193,7 +18193,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -18228,7 +18228,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>32.9</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -18298,7 +18298,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>32.2</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -18403,7 +18403,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>30.2</t>
+          <t>30.3</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -18438,7 +18438,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -18473,7 +18473,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -18683,7 +18683,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -18718,7 +18718,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -18753,7 +18753,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -18858,7 +18858,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -18893,7 +18893,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -18998,7 +18998,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -19033,7 +19033,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -19138,7 +19138,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -19313,7 +19313,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>35.5</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -19348,7 +19348,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>29.1</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -19367,6 +19367,1896 @@
       <c r="G541" t="inlineStr">
         <is>
           <t>01/12/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Rondônia</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F542" t="n">
+        <v>1</v>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Acre</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>1</v>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>53.2</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>1</v>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Roraima</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>1</v>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Pará</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>57.7</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F546" t="n">
+        <v>1</v>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Amapá</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>1</v>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Tocantins</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>41.3</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>1</v>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Maranhão</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>58.3</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>1</v>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Piauí</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>54.5</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>1</v>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>1</v>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Rio Grande do Norte</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>1</v>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Paraíba</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F553" t="n">
+        <v>1</v>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Pernambuco</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>1</v>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Alagoas</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>1</v>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>1</v>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>1</v>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Minas Gerais</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>1</v>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Espírito Santo</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>37.6</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>1</v>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>1</v>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>29.3</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>1</v>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Paraná</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>31.7</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>1</v>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Santa Catarina</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>1</v>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Rio Grande do Sul</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>1</v>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Mato Grosso do Sul</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>30.5</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>1</v>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Mato Grosso</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>35.3</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>1</v>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>35.3</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>1</v>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>1</v>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Rondônia</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>47.7</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>2</v>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Acre</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>46.6</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>2</v>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>2</v>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Roraima</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>41.6</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F572" t="n">
+        <v>2</v>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Pará</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>55.9</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>2</v>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Amapá</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>43.4</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>2</v>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Tocantins</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>41.5</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>2</v>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Maranhão</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>56.2</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F576" t="n">
+        <v>2</v>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Piauí</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>51.8</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>2</v>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>2</v>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Rio Grande do Norte</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>39.5</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>2</v>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Paraíba</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>2</v>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Pernambuco</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>2</v>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Alagoas</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>45.2</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>2</v>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>2</v>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>2</v>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Minas Gerais</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>36.5</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>2</v>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Espírito Santo</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>38.2</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>2</v>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>37.6</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>2</v>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>29.2</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>2</v>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Paraná</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>31.9</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>2</v>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Santa Catarina</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>2</v>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Rio Grande do Sul</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>31.1</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>2</v>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Mato Grosso do Sul</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>2</v>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Mato Grosso</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>35.5</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>2</v>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F594" t="n">
+        <v>2</v>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>28.4</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>2</v>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
         </is>
       </c>
     </row>
